--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$201</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="304">
   <si>
     <t>Group</t>
   </si>
@@ -924,6 +927,18 @@
   </si>
   <si>
     <t>WATCH</t>
+  </si>
+  <si>
+    <t>ListBlockingTailPopAndPushAsync</t>
+  </si>
+  <si>
+    <t>ListBlockingTailPopAndPushStringAsync</t>
+  </si>
+  <si>
+    <t>ListIndexStringAsync</t>
+  </si>
+  <si>
+    <t>ListIndexAsync</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1543,7 +1559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1689,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1703,7 +1719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1717,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1731,7 +1747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1756,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1781,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1809,7 +1825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1823,7 +1839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1851,7 +1867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1901,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1915,7 +1931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1979,7 +1995,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2041,7 +2057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2055,7 +2071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2083,7 +2099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2097,7 +2113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2114,7 +2130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2131,7 +2147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2165,7 +2181,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2207,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2249,7 +2265,13 @@
         <v>131</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2260,7 +2282,13 @@
         <v>132</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2285,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2302,7 +2330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -2319,7 +2347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -2397,7 +2425,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -2414,7 +2442,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -2431,7 +2459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -2803,7 +2831,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -2817,7 +2845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -2831,7 +2859,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -2845,7 +2873,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -3784,6 +3812,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F201">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
   <si>
     <t>Group</t>
   </si>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t>ListIndexAsync</t>
+  </si>
+  <si>
+    <t>ListInsertBeforeStringAsync, ListInsertAfterStringAsync</t>
+  </si>
+  <si>
+    <t>ListInsertBeforeAsync, ListInsertAfterAsync</t>
+  </si>
+  <si>
+    <t>ListLengthAsync</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1303,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2299,7 +2308,13 @@
         <v>133</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2310,7 +2325,10 @@
         <v>134</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="311">
   <si>
     <t>Group</t>
   </si>
@@ -948,6 +948,18 @@
   </si>
   <si>
     <t>ListLengthAsync</t>
+  </si>
+  <si>
+    <t>ListRangeStringAsync</t>
+  </si>
+  <si>
+    <t>ListRangeAsync</t>
+  </si>
+  <si>
+    <t>ListRemoveStringAsync</t>
+  </si>
+  <si>
+    <t>ListRemoveAsync</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1315,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2390,7 +2402,13 @@
         <v>138</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2401,7 +2419,13 @@
         <v>139</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="314">
   <si>
     <t>Group</t>
   </si>
@@ -960,6 +960,15 @@
   </si>
   <si>
     <t>ListRemoveAsync</t>
+  </si>
+  <si>
+    <t>ListSetStringAsync</t>
+  </si>
+  <si>
+    <t>ListSetAsync</t>
+  </si>
+  <si>
+    <t>ListTrimAsync</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1324,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2436,7 +2445,13 @@
         <v>140</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2447,7 +2462,10 @@
         <v>141</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
   <si>
     <t>Group</t>
   </si>
@@ -969,6 +969,9 @@
   </si>
   <si>
     <t>ListTrimAsync</t>
+  </si>
+  <si>
+    <t>HashScan</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1327,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A201" sqref="A4:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2242,7 +2245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2250,7 +2253,13 @@
         <v>108</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -2287,7 +2296,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>128</v>
       </c>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="330">
   <si>
     <t>Group</t>
   </si>
@@ -972,6 +972,51 @@
   </si>
   <si>
     <t>HashScan</t>
+  </si>
+  <si>
+    <t>SetAddMemberStringAsync</t>
+  </si>
+  <si>
+    <t>SetAddMemberAsync</t>
+  </si>
+  <si>
+    <t>SetCardinalityAsync</t>
+  </si>
+  <si>
+    <t>SetGetDifferenceMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SetGetDifferenceMembersAsync</t>
+  </si>
+  <si>
+    <t>SetStoreDifferenceMembersAsync</t>
+  </si>
+  <si>
+    <t>SetGetIntersectionMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SetGetIntersectionMembersAsync</t>
+  </si>
+  <si>
+    <t>SetStoreIntersectionMembersAsync</t>
+  </si>
+  <si>
+    <t>SetGetUnionMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SetGetUnionMembersAsync</t>
+  </si>
+  <si>
+    <t>SetStoreUnionMembersAsync</t>
+  </si>
+  <si>
+    <t>SetIsMemberAsync</t>
+  </si>
+  <si>
+    <t>SetGetMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SetGetMembersAsync</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1371,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A201" sqref="A4:A201"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3429,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>256</v>
       </c>
@@ -3437,10 +3482,16 @@
         <v>257</v>
       </c>
       <c r="C161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>315</v>
+      </c>
+      <c r="E161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>256</v>
       </c>
@@ -3448,10 +3499,13 @@
         <v>258</v>
       </c>
       <c r="C162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -3459,10 +3513,16 @@
         <v>259</v>
       </c>
       <c r="C163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>318</v>
+      </c>
+      <c r="E163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>256</v>
       </c>
@@ -3470,10 +3530,13 @@
         <v>260</v>
       </c>
       <c r="C164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -3481,10 +3544,16 @@
         <v>261</v>
       </c>
       <c r="C165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>321</v>
+      </c>
+      <c r="E165" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -3492,10 +3561,13 @@
         <v>262</v>
       </c>
       <c r="C166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>256</v>
       </c>
@@ -3503,10 +3575,13 @@
         <v>263</v>
       </c>
       <c r="C167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>256</v>
       </c>
@@ -3514,10 +3589,16 @@
         <v>264</v>
       </c>
       <c r="C168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>328</v>
+      </c>
+      <c r="E168" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>256</v>
       </c>
@@ -3528,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -3539,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>256</v>
       </c>
@@ -3550,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -3561,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -3569,10 +3650,16 @@
         <v>269</v>
       </c>
       <c r="C173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>324</v>
+      </c>
+      <c r="E173" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -3580,10 +3667,13 @@
         <v>270</v>
       </c>
       <c r="C174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3594,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>272</v>
       </c>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="339">
   <si>
     <t>Group</t>
   </si>
@@ -1017,6 +1017,33 @@
   </si>
   <si>
     <t>SetGetMembersAsync</t>
+  </si>
+  <si>
+    <t>SetMoveMemberStringAsync</t>
+  </si>
+  <si>
+    <t>SetMoveMemberAsync</t>
+  </si>
+  <si>
+    <t>SetPopMemberStringAsync</t>
+  </si>
+  <si>
+    <t>SetPopMemberAsync</t>
+  </si>
+  <si>
+    <t>SetGetRandomMemberStringAsync</t>
+  </si>
+  <si>
+    <t>SetGetRandomMemberAsync</t>
+  </si>
+  <si>
+    <t>SetRemoveMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SetRemoveMembersAsync</t>
+  </si>
+  <si>
+    <t>SetScanAsync</t>
   </si>
 </sst>
 </file>
@@ -1371,17 +1398,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173:C174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1440,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1561,7 +1589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +1617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +1772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1772,7 +1800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1783,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1797,7 +1825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1811,7 +1839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1825,7 +1853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1839,7 +1867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1850,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1864,7 +1892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1875,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1889,7 +1917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1903,7 +1931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1917,7 +1945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1931,7 +1959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1945,7 +1973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1959,7 +1987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1973,7 +2001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1984,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1995,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2009,7 +2037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2023,7 +2051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2037,7 +2065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2048,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2059,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2073,7 +2101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2087,7 +2115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2101,7 +2129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2118,7 +2146,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2135,7 +2163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2149,7 +2177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2177,7 +2205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2191,7 +2219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2208,7 +2236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2225,7 +2253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -2242,7 +2270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2259,7 +2287,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2273,7 +2301,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2290,7 +2318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2307,7 +2335,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -2324,7 +2352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2341,7 +2369,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -2358,7 +2386,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -2375,7 +2403,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2392,7 +2420,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2406,7 +2434,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2423,7 +2451,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -2440,7 +2468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -2474,7 +2502,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -2491,7 +2519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -2508,7 +2536,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -2522,7 +2550,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -2539,7 +2567,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -2556,7 +2584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -2573,7 +2601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -2590,7 +2618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2601,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2612,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -2623,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -2634,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2645,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -2656,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -2667,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -2678,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2689,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -2700,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2711,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -2722,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -2733,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -2744,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -2755,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -2766,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -2777,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -2788,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -2799,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -2810,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -2821,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -2832,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -2843,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -2854,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -2865,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -2876,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -2887,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -2898,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -2909,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -2920,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -2931,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -2945,7 +2973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -2959,7 +2987,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -2973,7 +3001,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -2987,7 +3015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -3001,7 +3029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -3012,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -3023,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -3034,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -3045,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>208</v>
       </c>
@@ -3067,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -3078,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -3089,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -3111,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -3122,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -3133,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -3144,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -3155,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -3166,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3177,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -3188,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -3199,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -3210,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -3221,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -3232,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3243,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -3254,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -3265,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -3276,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -3287,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -3298,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>236</v>
       </c>
@@ -3309,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -3320,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -3331,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>241</v>
       </c>
@@ -3342,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -3353,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -3364,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -3375,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -3386,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>241</v>
       </c>
@@ -3397,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>248</v>
       </c>
@@ -3408,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -3419,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -3430,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -3441,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>248</v>
       </c>
@@ -3452,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>248</v>
       </c>
@@ -3463,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>248</v>
       </c>
@@ -3474,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>256</v>
       </c>
@@ -3491,7 +3519,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>256</v>
       </c>
@@ -3505,7 +3533,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -3522,7 +3550,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>256</v>
       </c>
@@ -3536,7 +3564,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -3553,7 +3581,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -3567,7 +3595,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>256</v>
       </c>
@@ -3581,7 +3609,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>256</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>256</v>
       </c>
@@ -3606,10 +3634,16 @@
         <v>265</v>
       </c>
       <c r="C169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>330</v>
+      </c>
+      <c r="E169" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -3617,10 +3651,16 @@
         <v>266</v>
       </c>
       <c r="C170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>332</v>
+      </c>
+      <c r="E170" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>256</v>
       </c>
@@ -3628,10 +3668,16 @@
         <v>267</v>
       </c>
       <c r="C171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>334</v>
+      </c>
+      <c r="E171" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -3639,10 +3685,16 @@
         <v>268</v>
       </c>
       <c r="C172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>336</v>
+      </c>
+      <c r="E172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -3659,7 +3711,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -3673,7 +3725,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3681,10 +3733,13 @@
         <v>271</v>
       </c>
       <c r="C175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -3695,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -3706,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -3728,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -3739,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -3750,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -3761,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -3772,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -3783,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -3794,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -3805,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -3816,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -3827,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -3838,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -3849,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -3860,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -3871,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -3882,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -3893,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>272</v>
       </c>
@@ -3904,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -3915,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -3926,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>294</v>
       </c>
@@ -3937,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -3948,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -3959,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -3972,6 +4027,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F201">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sets"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="FALSE"/>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="344">
   <si>
     <t>Group</t>
   </si>
@@ -1044,6 +1044,21 @@
   </si>
   <si>
     <t>SetScanAsync</t>
+  </si>
+  <si>
+    <t>SortedSetAddMembersAsync, SortedSetAddOnlyMembersAsync, SortedSetUpsertMembersAsync, SortedSetUpdateMembersAsync</t>
+  </si>
+  <si>
+    <t>SortedSetAddMembersStringAsync, SortedSetAddOnlyMembersStringAsync, SortedSetUpsertMembersStringAsync, SortedSetUpdateMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetCardinalityAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetScoreAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetScoreStringAsync</t>
   </si>
 </sst>
 </file>
@@ -1398,18 +1413,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="121.1796875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +1602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +1799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1825,7 +1838,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1917,7 +1930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1959,7 +1972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1987,7 +2000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2012,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2023,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2037,7 +2050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2101,7 +2114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2129,7 +2142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2191,7 +2204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2205,7 +2218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2219,7 +2232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2301,7 +2314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2318,7 +2331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -2386,7 +2399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -2403,7 +2416,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2434,7 +2447,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2451,7 +2464,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -2485,7 +2498,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -2502,7 +2515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -2567,7 +2580,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -2601,7 +2614,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -2618,7 +2631,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -2651,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2673,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2717,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -2728,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2739,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -2750,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -2761,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -2783,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -2827,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -2871,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -2893,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -2904,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -2937,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -2959,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -2973,7 +2986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -3015,7 +3028,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -3029,7 +3042,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -3062,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -3073,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>208</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -3106,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -3117,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -3128,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -3139,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -3150,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -3161,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -3172,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -3194,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -3227,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -3238,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -3260,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3271,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -3282,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -3293,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -3304,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>236</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -3359,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>241</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -3381,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -3414,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>241</v>
       </c>
@@ -3425,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>248</v>
       </c>
@@ -3436,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>248</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>248</v>
       </c>
@@ -3491,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>248</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>256</v>
       </c>
@@ -3519,7 +3532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>256</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>256</v>
       </c>
@@ -3564,7 +3577,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -3581,7 +3594,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>256</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>256</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>256</v>
       </c>
@@ -3643,7 +3656,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>256</v>
       </c>
@@ -3677,7 +3690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -3694,7 +3707,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -3711,7 +3724,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -3725,7 +3738,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -3747,10 +3760,16 @@
         <v>273</v>
       </c>
       <c r="C176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>340</v>
+      </c>
+      <c r="E176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -3758,10 +3777,13 @@
         <v>274</v>
       </c>
       <c r="C177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -3772,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -3783,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -3794,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -3805,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -3816,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -3827,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -3838,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -3849,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -3860,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -3871,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -3882,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -3893,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -3904,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -3915,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -3926,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -3937,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -3945,10 +3967,16 @@
         <v>290</v>
       </c>
       <c r="C194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>343</v>
+      </c>
+      <c r="E194" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>272</v>
       </c>
@@ -3959,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -3970,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -3981,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>294</v>
       </c>
@@ -3992,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -4003,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -4014,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -4029,12 +4057,7 @@
   <autoFilter ref="A1:F201">
     <filterColumn colId="0">
       <filters>
-        <filter val="Sets"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="FALSE"/>
+        <filter val="Sorted Sets"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="349">
   <si>
     <t>Group</t>
   </si>
@@ -1059,6 +1059,21 @@
   </si>
   <si>
     <t>SortedSetGetScoreStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetCountAsync</t>
+  </si>
+  <si>
+    <t>SortedSetIncrementByStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetIncrementByAsync</t>
+  </si>
+  <si>
+    <t>SortedSetStoreIntersectionMembersAsync</t>
+  </si>
+  <si>
+    <t>SortedSetStoreUnionMembersAsync</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1428,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3791,7 +3808,10 @@
         <v>275</v>
       </c>
       <c r="C178" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -3802,7 +3822,13 @@
         <v>276</v>
       </c>
       <c r="C179" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>345</v>
+      </c>
+      <c r="E179" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -3813,7 +3839,10 @@
         <v>277</v>
       </c>
       <c r="C180" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -3984,7 +4013,10 @@
         <v>291</v>
       </c>
       <c r="C195" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="360">
   <si>
     <t>Group</t>
   </si>
@@ -1074,6 +1074,39 @@
   </si>
   <si>
     <t>SortedSetStoreUnionMembersAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetLexCountAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRangeStringAsync, SortedSetGetRangeWithScoresStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRangeAsync, SortedSetGetRangeWithScoresAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetLexRangeAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseLexRangeAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRangeByScoreStringAsync, SortedSetGetRangeByScoreWithScoresStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRangeByScoreAsync, SortedSetGetRangeByScoreWithScoresAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRangeStringAsync, SortedSetGetReverseRangeWithScoresStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRangeAsync, SortedSetGetReverseRangeWithScoresAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRangeByScoreStringAsync, SortedSetGetReverseRangeByScoreWithScoresStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRangeByScoreAsync, SortedSetGetReverseRangeByScoreWithScoresAsync</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1462,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+      <selection activeCell="B192" activeCellId="2" sqref="B181:B185 B191 B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3853,7 +3886,10 @@
         <v>278</v>
       </c>
       <c r="C181" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -3864,7 +3900,13 @@
         <v>279</v>
       </c>
       <c r="C182" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>350</v>
+      </c>
+      <c r="E182" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -3875,7 +3917,10 @@
         <v>280</v>
       </c>
       <c r="C183" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -3886,7 +3931,10 @@
         <v>281</v>
       </c>
       <c r="C184" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -3897,7 +3945,13 @@
         <v>282</v>
       </c>
       <c r="C185" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>354</v>
+      </c>
+      <c r="E185" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -3963,7 +4017,13 @@
         <v>293</v>
       </c>
       <c r="C191" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>356</v>
+      </c>
+      <c r="E191" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -3974,7 +4034,13 @@
         <v>288</v>
       </c>
       <c r="C192" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>358</v>
+      </c>
+      <c r="E192" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="364">
   <si>
     <t>Group</t>
   </si>
@@ -1107,6 +1107,18 @@
   </si>
   <si>
     <t>SortedSetGetReverseRangeByScoreAsync, SortedSetGetReverseRangeByScoreWithScoresAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRankStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetReverseRankAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRankAsync</t>
+  </si>
+  <si>
+    <t>SortedSetGetRankStringAsync</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1474,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B192" activeCellId="2" sqref="B181:B185 B191 B192"/>
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3962,7 +3974,13 @@
         <v>283</v>
       </c>
       <c r="C186" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>363</v>
+      </c>
+      <c r="E186" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
@@ -4051,7 +4069,13 @@
         <v>289</v>
       </c>
       <c r="C193" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>360</v>
+      </c>
+      <c r="E193" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="369">
   <si>
     <t>Group</t>
   </si>
@@ -1119,6 +1119,21 @@
   </si>
   <si>
     <t>SortedSetGetRankStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetRemoveRangeByLexAsync</t>
+  </si>
+  <si>
+    <t>SortedSetRemoveRangeByRankAsync</t>
+  </si>
+  <si>
+    <t>SortedSetRemoveRangeByScoreAsync</t>
+  </si>
+  <si>
+    <t>SortedSetRemoveMembersAsync</t>
+  </si>
+  <si>
+    <t>SortedSetRemoveMembersStringAsync</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1489,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+      <selection activeCell="B187" sqref="B187:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3991,7 +4006,13 @@
         <v>284</v>
       </c>
       <c r="C187" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>368</v>
+      </c>
+      <c r="E187" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -4002,7 +4023,10 @@
         <v>285</v>
       </c>
       <c r="C188" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
@@ -4013,7 +4037,10 @@
         <v>286</v>
       </c>
       <c r="C189" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -4024,7 +4051,10 @@
         <v>287</v>
       </c>
       <c r="C190" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="370">
   <si>
     <t>Group</t>
   </si>
@@ -1134,6 +1134,9 @@
   </si>
   <si>
     <t>SortedSetRemoveMembersStringAsync</t>
+  </si>
+  <si>
+    <t>SortedSetScanAsync</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1492,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187:B190"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +1550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>208</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>236</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>241</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>241</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>248</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>248</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>248</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>248</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>272</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -4147,10 +4150,13 @@
         <v>292</v>
       </c>
       <c r="C196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>294</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -4207,9 +4213,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F201">
-    <filterColumn colId="0">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Sorted Sets"/>
+        <filter val="FALSE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="379">
   <si>
     <t>Group</t>
   </si>
@@ -1137,6 +1137,33 @@
   </si>
   <si>
     <t>SortedSetScanAsync</t>
+  </si>
+  <si>
+    <t>DumpAsync</t>
+  </si>
+  <si>
+    <t>RestoreAsync</t>
+  </si>
+  <si>
+    <t>GetObjectReferenceCountAsync, GetObjectIdleTimeAsync, GetObjectEncodingAsync</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>GetClientListAsync</t>
+  </si>
+  <si>
+    <t>GetClientNameAsync</t>
+  </si>
+  <si>
+    <t>SetClientNameAsync</t>
+  </si>
+  <si>
+    <t>GetServerTimeAsync</t>
+  </si>
+  <si>
+    <t>Not to be implemented by clients.</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1519,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1901,7 +1928,10 @@
         <v>57</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1995,6 +2025,9 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
+      <c r="E34" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -2102,7 +2135,10 @@
         <v>72</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2113,7 +2149,10 @@
         <v>73</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -2752,7 +2791,10 @@
         <v>168</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2763,7 +2805,10 @@
         <v>169</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2796,7 +2841,10 @@
         <v>172</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2876,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -2887,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -2898,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -2908,8 +2956,11 @@
       <c r="C99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F99" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -2919,8 +2970,11 @@
       <c r="C100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F100" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -2931,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -2942,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -2953,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -2964,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -2975,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -2986,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -2997,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -3008,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -3019,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -3030,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -3041,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -3049,7 +3103,10 @@
         <v>195</v>
       </c>
       <c r="C112" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="393">
   <si>
     <t>Group</t>
   </si>
@@ -1164,6 +1164,48 @@
   </si>
   <si>
     <t>Not to be implemented by clients.</t>
+  </si>
+  <si>
+    <t>FlushAllAsync</t>
+  </si>
+  <si>
+    <t>FlushDatabaseAsync</t>
+  </si>
+  <si>
+    <t>No plans, requires streaming</t>
+  </si>
+  <si>
+    <t>GetDatabaseSizeAsync</t>
+  </si>
+  <si>
+    <t>No plans</t>
+  </si>
+  <si>
+    <t>SetConfigurationAsync</t>
+  </si>
+  <si>
+    <t>GetConfigurationAsync</t>
+  </si>
+  <si>
+    <t>ResetConfigurationStatsAsync</t>
+  </si>
+  <si>
+    <t>RewriteConfigurationAsync</t>
+  </si>
+  <si>
+    <t>BackgroundSaveAsync</t>
+  </si>
+  <si>
+    <t>SaveAsync</t>
+  </si>
+  <si>
+    <t>BackgroundRewriteAppendOnlyFileAsync</t>
+  </si>
+  <si>
+    <t>GetLastSaveDateTimeAsync</t>
+  </si>
+  <si>
+    <t>GetServerInformationAsync</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1560,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2758,7 +2800,10 @@
         <v>165</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2769,7 +2814,10 @@
         <v>166</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2899,7 +2947,10 @@
         <v>177</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2910,7 +2961,10 @@
         <v>178</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2921,7 +2975,10 @@
         <v>179</v>
       </c>
       <c r="C96" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2932,7 +2989,10 @@
         <v>180</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2943,7 +3003,10 @@
         <v>181</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2982,7 +3045,10 @@
         <v>184</v>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2993,7 +3059,10 @@
         <v>185</v>
       </c>
       <c r="C102" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3004,7 +3073,10 @@
         <v>186</v>
       </c>
       <c r="C103" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3015,7 +3087,10 @@
         <v>187</v>
       </c>
       <c r="C104" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3028,6 +3103,9 @@
       <c r="C105" t="b">
         <v>0</v>
       </c>
+      <c r="F105" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -3048,7 +3126,10 @@
         <v>190</v>
       </c>
       <c r="C107" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3060,6 +3141,9 @@
       </c>
       <c r="C108" t="b">
         <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="398">
   <si>
     <t>Group</t>
   </si>
@@ -1206,6 +1206,21 @@
   </si>
   <si>
     <t>GetServerInformationAsync</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>GeoAddAsync</t>
+  </si>
+  <si>
+    <t>GeoPositionAsync</t>
+  </si>
+  <si>
+    <t>GeoHashAsync</t>
+  </si>
+  <si>
+    <t>GeoDistanceAsync</t>
   </si>
 </sst>
 </file>
@@ -1560,8 +1575,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1844,15 +1859,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>393</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
@@ -1889,29 +1904,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>393</v>
       </c>
       <c r="F22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="b">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>393</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
@@ -1962,7 +1977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>64</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>372</v>
@@ -2169,7 +2184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2806,7 +2821,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -2845,7 +2860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -2967,7 +2982,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -2981,7 +2996,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -3009,35 +3024,35 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>164</v>
       </c>
       <c r="B99" t="s">
         <v>182</v>
       </c>
-      <c r="C99" t="b">
-        <v>0</v>
+      <c r="C99" t="s">
+        <v>393</v>
       </c>
       <c r="F99" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
       <c r="B100" t="s">
         <v>183</v>
       </c>
-      <c r="C100" t="b">
-        <v>0</v>
+      <c r="C100" t="s">
+        <v>393</v>
       </c>
       <c r="F100" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -3093,15 +3108,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>164</v>
       </c>
       <c r="B105" t="s">
         <v>188</v>
       </c>
-      <c r="C105" t="b">
-        <v>0</v>
+      <c r="C105" t="s">
+        <v>393</v>
       </c>
       <c r="F105" t="s">
         <v>381</v>
@@ -3118,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -3132,15 +3147,15 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>164</v>
       </c>
       <c r="B108" t="s">
         <v>191</v>
       </c>
-      <c r="C108" t="b">
-        <v>0</v>
+      <c r="C108" t="s">
+        <v>393</v>
       </c>
       <c r="F108" t="s">
         <v>383</v>
@@ -3179,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -3384,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -3395,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -3417,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -3428,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -3450,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -3461,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -3483,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -3494,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3502,10 +3517,13 @@
         <v>230</v>
       </c>
       <c r="C139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -3513,10 +3531,13 @@
         <v>231</v>
       </c>
       <c r="C140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -3524,10 +3545,13 @@
         <v>232</v>
       </c>
       <c r="C141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -3535,10 +3559,13 @@
         <v>233</v>
       </c>
       <c r="C142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -3549,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>229</v>
       </c>

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="399">
   <si>
     <t>Group</t>
   </si>
@@ -1221,6 +1221,9 @@
   </si>
   <si>
     <t>GeoDistanceAsync</t>
+  </si>
+  <si>
+    <t>GeoRadius</t>
   </si>
 </sst>
 </file>
@@ -1575,8 +1578,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3573,7 +3576,10 @@
         <v>234</v>
       </c>
       <c r="C143" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">

--- a/RedisCommands.xlsx
+++ b/RedisCommands.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="403">
   <si>
     <t>Group</t>
   </si>
@@ -1224,6 +1224,18 @@
   </si>
   <si>
     <t>GeoRadius</t>
+  </si>
+  <si>
+    <t>HyperLogLogAddAsync</t>
+  </si>
+  <si>
+    <t>HyperLogLogCountAsync</t>
+  </si>
+  <si>
+    <t>HyperLogLogAddStringAsync</t>
+  </si>
+  <si>
+    <t>HyperLogLogMergeAsync</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1590,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,7 +2087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -3590,10 +3602,13 @@
         <v>235</v>
       </c>
       <c r="C144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>236</v>
       </c>
@@ -3601,10 +3616,16 @@
         <v>237</v>
       </c>
       <c r="C145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -3612,10 +3633,13 @@
         <v>238</v>
       </c>
       <c r="C146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -3623,10 +3647,13 @@
         <v>239</v>
       </c>
       <c r="C147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>241</v>
       </c>
@@ -3637,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -3648,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -3659,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -3670,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -3681,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>241</v>
       </c>
@@ -3692,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>248</v>
       </c>
@@ -3703,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -3714,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -3725,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>248</v>
       </c>
@@ -3747,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>248</v>
       </c>
@@ -3758,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>248</v>
       </c>
